--- a/ids720_specific/class_schedule.xlsx
+++ b/ids720_specific/class_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nce8/github/practicaldatascience_book/ids720_specific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1024B85-8008-0443-B796-40B92DB2A894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B517DC-E06A-5D4B-B394-E4A175619CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="940" windowWidth="30240" windowHeight="17340" xr2:uid="{212B26BE-C12B-1745-A277-D3917F547107}"/>
   </bookViews>
@@ -220,13 +220,6 @@
 - `Parquet Format &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/30_parquet.html&gt;`_</t>
   </si>
   <si>
-    <t>- `conda Environments &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/conda_environments.html&gt;`_
-- `Parallel Computing &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/60_parallelism.html&gt;`_
-- `Distributed Computing with dask &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/70_dask.html&gt;`_
-(Note reading includes a 45 minute video to watch)
-- **Opioid Project Rough Draft Due**</t>
-  </si>
-  <si>
     <t>- `Advanced Command Line &lt;../notebooks/PDS_not_yet_in_coursera/10_commandline/commandline_part2.html&gt;`_
 - `Python packages &lt;../notebooks/class_2/week_4/30_managing_python_packages.html&gt;`_
 - **SETUP 4:** `Jupyter in VS Code &lt;../notebooks/PDS_not_yet_in_coursera/00_setup_env/jupyter_in_vscode.html&gt;`_
@@ -411,9 +404,6 @@
 - Read all readings under the Statistical Modelling heading, starting with `Inference and Prediction &lt;../notebooks/class_5/week_3/20_inference_v_prediction.html&gt;`_ through `Beyond the Basic Model &lt;../notebooks/class_5/week_3/40_linear_regression_extensions&gt;`_</t>
   </si>
   <si>
-    <t>- `JVP Chapter 5 up to but not including "Hyperparameters and Model Validation" Section&lt;https://jakevdp.github.io/PythonDataScienceHandbook/#5.-Machine-Learning&gt;`_</t>
-  </si>
-  <si>
     <t>- Defining Your Own Estimators</t>
   </si>
   <si>
@@ -421,6 +411,15 @@
 - Review linear regression as matrix manipulations. `Here's a nice review. &lt;https://www.stat.purdue.edu/~boli/stat512/lectures/topic3.pdf&gt;`_
 - `Review how to define classes &lt;https://realpython.com/python3-object-oriented-programming/&gt;`_
 - `Broadcasting Gotchyas &lt;../notebooks/class_2/week_3/41_broadcasting.html#a-common-gotcha-narrow-matrices-v-1-dimensional-vectors&gt;`_</t>
+  </si>
+  <si>
+    <t>- `conda Environments &lt;../notebooks/PDS_not_yet_in_coursera/20_programming_concepts/conda_environments.html&gt;`_
+- `Parallel Computing &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/60_parallelism.html&gt;`_
+- `Distributed Computing with dask &lt;../notebooks/PDS_not_yet_in_coursera/30_big_data/70_dask.html&gt;`_
+(Note reading includes a 45 minute video to watch)</t>
+  </si>
+  <si>
+    <t>- `JVP Chapter 5 up to but not including "Hyperparameters and Model Validation" Section &lt;https://jakevdp.github.io/PythonDataScienceHandbook/#5.-Machine-Learning&gt;`_</t>
   </si>
 </sst>
 </file>
@@ -829,7 +828,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,7 +876,7 @@
         <v>54</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -885,13 +884,13 @@
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -902,10 +901,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
@@ -913,13 +912,13 @@
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -930,10 +929,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="272" x14ac:dyDescent="0.2">
@@ -944,10 +943,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="118" customHeight="1" x14ac:dyDescent="0.2">
@@ -958,10 +957,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -972,10 +971,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -986,10 +985,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -1000,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1014,10 +1013,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -1028,10 +1027,10 @@
         <v>22</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
@@ -1042,10 +1041,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1075,7 +1074,7 @@
         <v>55</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="71" x14ac:dyDescent="0.2">
@@ -1083,13 +1082,13 @@
         <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.2">
@@ -1100,10 +1099,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="106" customHeight="1" x14ac:dyDescent="0.2">
@@ -1114,10 +1113,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="140" customHeight="1" x14ac:dyDescent="0.2">
@@ -1128,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="7"/>
     </row>
@@ -1140,10 +1139,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="134" customHeight="1" x14ac:dyDescent="0.2">
@@ -1154,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -1163,14 +1162,14 @@
         <v>46</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>47</v>
       </c>
@@ -1178,7 +1177,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1189,7 +1188,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
